--- a/Översikt LUDVIKA.xlsx
+++ b/Översikt LUDVIKA.xlsx
@@ -572,7 +572,7 @@
         <v>44792</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44761</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>44221</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44937</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43801</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>45084</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44188</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>45072</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45099</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43872</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44322</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44831</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45049</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>45061</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43389</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43581</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>43873</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44167</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44188</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>44456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>44547</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44560</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>44571</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44693</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>44694</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44832</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44874</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>44888</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>45041</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>45089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>45093</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45126</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45140</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43355</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43363</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43384</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43385</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43385</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43385</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43389</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43389</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43403</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43404</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43427</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43436</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43451</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43474</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43494</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43494</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43497</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43500</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43501</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>43502</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>43531</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43551</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43551</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43557</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>43593</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43606</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43614</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43630</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>43630</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>43630</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>43656</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>43662</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>43664</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>43681</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>43696</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43705</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43714</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43734</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43770</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43791</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43797</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43798</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43798</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43801</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43819</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43847</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43847</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43860</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43861</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>43861</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43868</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>43873</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43881</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43882</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43887</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43887</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43892</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43893</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43895</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43898</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43900</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43903</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>43903</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43910</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43915</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43918</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>43921</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>43921</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43922</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43923</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43923</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43923</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43923</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43923</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43924</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43949</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>43965</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>43969</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>43978</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>43979</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43983</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43983</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43983</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43983</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43993</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>43999</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>44000</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44006</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44012</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44020</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44036</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44067</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44069</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44081</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44085</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>44085</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44085</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>44085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44090</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>44092</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44092</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44092</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44092</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44097</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44097</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44104</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44116</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44116</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44118</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>44119</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44119</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44120</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44123</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44127</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44127</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44131</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>44154</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>44154</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44154</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44159</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44165</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44166</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44168</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44174</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44188</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44188</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>44188</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>44188</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44188</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44209</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44218</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>44224</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44237</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         <v>44249</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>44274</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>44291</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44292</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>44299</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44302</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44316</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44316</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44316</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44316</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44316</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44322</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44333</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44333</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44336</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44337</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>44344</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44358</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44362</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44369</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44370</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>44370</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44370</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44370</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44377</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44377</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44386</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>44386</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44387</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44393</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44397</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44406</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44413</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>44420</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44439</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>44441</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44447</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44452</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44456</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44459</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44470</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44476</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44477</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44482</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44508</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>44512</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44516</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44516</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44516</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>44543</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44552</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44572</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44579</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44579</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44581</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44599</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44600</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44643</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44658</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44680</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44700</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>44701</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44706</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44711</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44720</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44720</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44729</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20108,7 +20108,7 @@
         <v>44730</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44733</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44741</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>44785</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44785</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44789</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44809</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44811</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44817</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44826</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20723,7 +20723,7 @@
         <v>44826</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44830</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44831</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>44831</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44833</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44844</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>44844</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>44848</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>44852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>44853</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44854</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44859</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44867</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>44869</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>44872</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>44872</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>44879</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>44880</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>44883</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44883</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44890</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44893</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44895</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>44903</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>44929</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44929</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>44942</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         <v>44945</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>44958</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44960</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44960</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44960</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44960</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44964</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44978</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44983</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44994</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44994</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>45001</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>45002</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>45021</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>45034</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>45034</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>45034</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>45034</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
         <v>45043</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45044</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>45044</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45054</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45058</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>45062</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>45062</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>45063</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>45063</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>45063</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24410,7 +24410,7 @@
         <v>45063</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>45063</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>45068</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>45068</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>45068</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>45068</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>45068</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>45072</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>45079</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>45082</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>45082</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>45093</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45098</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45105</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45112</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>45112</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>45113</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45114</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45117</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45118</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45127</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>45128</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>45131</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45131</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>45148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>45149</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>45149</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45163</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>

--- a/Översikt LUDVIKA.xlsx
+++ b/Översikt LUDVIKA.xlsx
@@ -572,7 +572,7 @@
         <v>44792</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44761</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>44221</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44937</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43801</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>45084</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44188</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>45072</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45099</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43872</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44322</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44831</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45049</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>45061</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43389</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43581</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>43873</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44167</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44188</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>44456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>44547</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44560</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>44571</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44693</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>44694</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44832</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44874</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>44888</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>45041</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>45089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>45093</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45126</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45140</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43355</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43363</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43384</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43385</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43385</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43385</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43389</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43389</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43403</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43404</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43427</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43436</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43451</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43474</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43494</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43494</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43497</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43500</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43501</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>43502</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>43531</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43551</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43551</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43557</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>43593</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43606</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43614</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43630</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>43630</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>43630</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>43656</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>43662</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>43664</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>43681</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>43696</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43705</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43714</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43734</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43770</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43791</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43797</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43798</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43798</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43801</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43819</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43847</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43847</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43860</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43861</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>43861</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43868</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>43873</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43881</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43882</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43887</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43887</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43892</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43893</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43895</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43898</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43900</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43903</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>43903</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43910</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43915</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43918</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>43921</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>43921</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43922</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43923</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43923</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43923</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43923</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43923</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43924</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43949</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>43965</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>43969</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>43978</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>43979</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43983</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43983</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43983</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43983</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43993</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>43999</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>44000</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44006</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44012</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44020</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44036</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44067</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44069</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44081</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44085</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>44085</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44085</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>44085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44090</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>44092</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44092</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44092</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44092</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44097</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44097</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44104</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44116</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44116</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44118</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>44119</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44119</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44120</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44123</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44127</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44127</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44131</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>44154</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>44154</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44154</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44159</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44165</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44166</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44168</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44174</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44188</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44188</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>44188</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>44188</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44188</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44209</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44218</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>44224</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44237</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         <v>44249</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>44274</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>44291</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44292</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>44299</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44302</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44316</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44316</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44316</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44316</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44316</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44322</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44333</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44333</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44336</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44337</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>44344</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44358</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44362</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44369</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44370</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>44370</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44370</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44370</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44377</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44377</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44386</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>44386</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44387</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44393</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44397</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44406</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44413</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>44420</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44439</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>44441</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44447</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44452</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44456</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44459</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44470</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44476</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44477</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44482</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44508</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>44512</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44516</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44516</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44516</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>44543</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44552</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44572</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44579</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44579</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44581</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44599</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44600</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44643</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44658</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44680</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44700</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>44701</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44706</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44711</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44720</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44720</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44729</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20108,7 +20108,7 @@
         <v>44730</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44733</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44741</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>44785</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44785</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44789</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44809</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44811</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44817</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44826</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20723,7 +20723,7 @@
         <v>44826</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44830</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44831</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>44831</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44833</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44844</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>44844</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>44848</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>44852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>44853</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44854</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44859</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44867</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>44869</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>44872</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>44872</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>44879</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>44880</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>44883</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44883</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44890</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44893</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44895</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>44903</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>44929</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44929</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>44942</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         <v>44945</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>44958</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44960</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44960</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44960</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44960</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44964</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44978</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44983</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44994</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44994</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>45001</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>45002</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>45021</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>45034</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>45034</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>45034</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>45034</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
         <v>45043</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45044</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>45044</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45054</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45058</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>45062</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>45062</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>45063</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>45063</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>45063</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24410,7 +24410,7 @@
         <v>45063</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>45063</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>45068</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>45068</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>45068</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>45068</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>45068</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>45072</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>45079</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>45082</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>45082</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>45093</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45098</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45105</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45112</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>45112</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>45113</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45114</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45117</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45118</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45127</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>45128</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>45131</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45131</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>45148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>45149</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>45149</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45163</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>

--- a/Översikt LUDVIKA.xlsx
+++ b/Översikt LUDVIKA.xlsx
@@ -572,7 +572,7 @@
         <v>44792</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44761</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>44221</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44937</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43801</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>45084</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44188</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>45072</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45099</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43872</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44322</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44831</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45049</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>45061</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43389</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43581</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>43873</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44167</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44188</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>44456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>44547</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44560</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>44571</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44693</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>44694</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44832</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44874</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>44888</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>45041</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>45089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>45093</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45126</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45140</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43355</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43363</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43384</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43385</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43385</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43385</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43389</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43389</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43403</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43404</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43427</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43436</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43451</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43474</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43494</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43494</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43497</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43500</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43501</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>43502</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>43531</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43551</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43551</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43557</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>43593</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43606</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43614</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43630</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>43630</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>43630</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>43656</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>43662</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>43664</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>43681</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>43696</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43705</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43714</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43734</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43770</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43791</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43797</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43798</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43798</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43801</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43819</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43847</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43847</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43860</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43861</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>43861</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43868</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>43873</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43881</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43882</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43887</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43887</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43892</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43893</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43895</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43898</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43900</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43903</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>43903</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43910</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43915</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43918</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>43921</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>43921</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43922</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43923</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43923</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43923</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43923</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43923</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43924</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43949</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>43965</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>43969</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>43978</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>43979</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43983</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43983</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43983</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43983</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43993</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>43999</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>44000</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44006</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44012</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44020</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44036</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44067</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44069</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44081</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44085</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>44085</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44085</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>44085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44090</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>44092</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44092</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44092</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44092</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44097</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44097</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44104</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44116</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44116</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44118</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>44119</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44119</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44120</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44123</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44127</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44127</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44131</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>44154</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>44154</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44154</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44159</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44165</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44166</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44168</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44174</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44188</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44188</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>44188</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>44188</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44188</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44209</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44218</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>44224</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44237</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         <v>44249</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>44274</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>44291</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44292</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>44299</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44302</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44316</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44316</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44316</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44316</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44316</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44322</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44333</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44333</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44336</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44337</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>44344</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44358</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44362</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44369</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44370</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>44370</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44370</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44370</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44377</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44377</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44386</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>44386</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44387</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44393</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44397</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44406</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44413</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>44420</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44439</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>44441</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44447</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44452</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44456</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44459</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44470</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44476</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44477</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44482</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44508</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>44512</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44516</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44516</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44516</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>44543</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44552</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44572</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44579</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44579</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44581</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44599</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44600</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44643</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44658</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44680</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44700</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>44701</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44706</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44711</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44720</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44720</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44729</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20108,7 +20108,7 @@
         <v>44730</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44733</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44741</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>44785</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44785</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44789</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44809</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44811</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44817</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44826</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20723,7 +20723,7 @@
         <v>44826</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44830</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44831</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>44831</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44833</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44844</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>44844</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>44848</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>44852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>44853</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44854</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44859</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44867</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>44869</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>44872</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>44872</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>44879</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>44880</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>44883</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44883</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44890</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44893</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44895</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>44903</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>44929</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44929</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>44942</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         <v>44945</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>44958</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44960</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44960</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44960</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44960</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44964</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44978</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44983</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44994</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44994</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>45001</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>45002</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>45021</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>45034</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>45034</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>45034</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>45034</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
         <v>45043</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45044</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>45044</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45054</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45058</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>45062</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>45062</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>45063</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>45063</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>45063</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24410,7 +24410,7 @@
         <v>45063</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>45063</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>45068</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>45068</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>45068</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>45068</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>45068</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>45072</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>45079</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>45082</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>45082</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>45093</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45098</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45105</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45112</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>45112</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>45113</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45114</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45117</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45118</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45127</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>45128</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>45131</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45131</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>45148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>45149</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>45149</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45163</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>

--- a/Översikt LUDVIKA.xlsx
+++ b/Översikt LUDVIKA.xlsx
@@ -572,7 +572,7 @@
         <v>44792</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44761</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>44221</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44937</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43801</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>45084</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44188</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>45072</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45099</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43872</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44322</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44831</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45049</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>45061</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43389</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43581</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>43873</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44167</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44188</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>44456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>44547</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44560</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>44571</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44693</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>44694</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44832</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44874</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>44888</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>45041</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>45089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>45093</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45126</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45140</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43355</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43363</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43384</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43385</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43385</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43385</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43389</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43389</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43403</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43404</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43427</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43436</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43451</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43474</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43494</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43494</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43497</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43500</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43501</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>43502</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>43531</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43551</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43551</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43557</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>43593</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43606</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43614</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43630</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>43630</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>43630</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>43656</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>43662</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>43664</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>43681</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>43696</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43705</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43714</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43734</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43770</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43791</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43797</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43798</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43798</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43801</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43819</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43847</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43847</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43860</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43861</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>43861</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43868</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>43873</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43881</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43882</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43887</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43887</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43892</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43893</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43895</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43898</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43900</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43903</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>43903</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43910</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43915</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43918</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>43921</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>43921</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43922</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43923</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43923</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43923</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43923</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43923</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43924</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43949</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>43965</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>43969</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>43978</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>43979</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43983</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43983</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43983</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43983</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43993</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>43999</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>44000</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44006</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44012</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44020</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44036</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44067</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44069</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44081</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44085</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>44085</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44085</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>44085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44090</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>44092</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44092</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44092</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44092</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44097</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44097</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44104</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44116</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44116</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44118</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>44119</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44119</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44120</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44123</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44127</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44127</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44131</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>44154</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>44154</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44154</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44159</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44165</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44166</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44168</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44174</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44188</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44188</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>44188</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>44188</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44188</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44209</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44218</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>44224</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44237</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         <v>44249</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>44274</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>44291</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44292</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>44299</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44302</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44316</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44316</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44316</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44316</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44316</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44322</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44333</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44333</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44336</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44337</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>44344</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44358</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44362</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44369</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44370</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>44370</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44370</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44370</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44377</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44377</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44386</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>44386</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44387</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44393</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44397</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44406</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44413</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>44420</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44439</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>44441</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44447</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44452</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44456</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44459</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44470</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44476</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44477</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44482</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44508</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>44512</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44516</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44516</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44516</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>44543</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44552</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44572</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44579</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44579</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44581</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44599</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44600</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44643</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44658</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44680</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44700</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>44701</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44706</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44711</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44720</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44720</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44729</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20108,7 +20108,7 @@
         <v>44730</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44733</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44741</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>44785</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44785</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44789</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44809</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44811</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44817</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44826</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20723,7 +20723,7 @@
         <v>44826</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44830</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44831</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>44831</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44833</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44844</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>44844</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>44848</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>44852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>44853</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44854</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44859</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44867</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>44869</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>44872</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>44872</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>44879</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>44880</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>44883</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44883</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44890</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44893</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44895</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>44903</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>44929</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44929</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>44942</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         <v>44945</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>44958</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44960</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44960</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44960</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44960</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44964</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44978</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44983</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44994</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44994</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>45001</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>45002</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>45021</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>45034</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>45034</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>45034</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>45034</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
         <v>45043</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45044</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>45044</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45054</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45058</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>45062</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>45062</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>45063</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>45063</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>45063</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24410,7 +24410,7 @@
         <v>45063</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>45063</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>45068</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>45068</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>45068</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>45068</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>45068</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>45072</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>45079</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>45082</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>45082</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>45093</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45098</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45105</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45112</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>45112</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>45113</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45114</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45117</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45118</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45127</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>45128</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>45131</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45131</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>45148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>45149</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>45149</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45163</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>

--- a/Översikt LUDVIKA.xlsx
+++ b/Översikt LUDVIKA.xlsx
@@ -572,7 +572,7 @@
         <v>44792</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44761</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>44221</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44937</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43801</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>45084</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44188</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>45072</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45099</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43872</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44322</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44831</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45049</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>45061</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43389</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43581</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>43873</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44167</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44188</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>44456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>44547</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44560</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>44571</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44693</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>44694</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44832</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44874</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>44888</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>45041</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>45089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>45093</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45126</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45140</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43355</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43363</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43384</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43385</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43385</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43385</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43389</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43389</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43403</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43404</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43427</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43436</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43451</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43474</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43494</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43494</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43497</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43500</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43501</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>43502</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>43531</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43551</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43551</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43557</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>43593</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43606</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43614</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43630</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>43630</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>43630</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>43656</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>43662</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>43664</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>43681</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>43696</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43705</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43714</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43734</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43770</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43791</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43797</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43798</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43798</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43801</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43819</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43847</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43847</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43860</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43861</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>43861</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43868</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>43873</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43881</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43882</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43887</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43887</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43892</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43893</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43895</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43898</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43900</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43903</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>43903</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43910</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43915</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43918</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>43921</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>43921</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43922</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43923</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43923</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43923</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43923</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43923</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43924</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43949</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>43965</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>43969</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>43978</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>43979</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43983</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43983</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43983</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43983</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43993</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>43999</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>44000</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44006</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44012</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44020</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44036</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44067</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44069</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44081</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44085</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>44085</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44085</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>44085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44090</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>44092</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44092</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44092</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44092</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44097</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44097</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44104</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44116</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44116</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44118</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>44119</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44119</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44120</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44123</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44127</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44127</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44131</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>44154</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>44154</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44154</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44159</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44165</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44166</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44168</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44174</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44188</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44188</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>44188</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>44188</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44188</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44209</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44218</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>44224</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44237</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         <v>44249</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>44274</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>44291</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44292</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>44299</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44302</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44316</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44316</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44316</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44316</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44316</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44322</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44333</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44333</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44336</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44337</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>44344</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44358</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44362</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44369</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44370</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>44370</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44370</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44370</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44377</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44377</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44386</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>44386</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44387</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44393</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44397</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44406</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44413</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>44420</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44439</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>44441</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44447</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44452</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44456</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44459</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44470</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44476</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44477</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44482</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44508</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>44512</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44516</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44516</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44516</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>44543</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44552</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44572</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44579</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44579</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44581</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44599</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44600</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44643</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44658</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44680</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44700</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>44701</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44706</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44711</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44720</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44720</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44729</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20108,7 +20108,7 @@
         <v>44730</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44733</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44741</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>44785</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44785</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44789</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44809</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44811</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44817</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44826</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20723,7 +20723,7 @@
         <v>44826</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44830</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44831</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>44831</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44833</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44844</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>44844</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>44848</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>44852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>44853</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44854</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44859</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44867</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>44869</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>44872</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>44872</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>44879</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>44880</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>44883</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44883</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44890</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44893</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44895</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>44903</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>44929</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44929</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>44942</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         <v>44945</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>44958</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44960</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44960</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44960</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44960</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44964</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44978</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44983</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44994</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44994</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>45001</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>45002</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>45021</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>45034</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>45034</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>45034</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>45034</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
         <v>45043</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45044</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>45044</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45054</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45058</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>45062</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>45062</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>45063</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>45063</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>45063</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24410,7 +24410,7 @@
         <v>45063</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>45063</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>45068</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>45068</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>45068</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>45068</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>45068</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>45072</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>45079</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>45082</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>45082</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>45093</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45098</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45105</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45112</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>45112</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>45113</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45114</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45117</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45118</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45127</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>45128</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>45131</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45131</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>45148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>45149</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>45149</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45163</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>

--- a/Översikt LUDVIKA.xlsx
+++ b/Översikt LUDVIKA.xlsx
@@ -572,7 +572,7 @@
         <v>44792</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44761</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>44221</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44937</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43801</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>45084</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44188</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>45072</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45099</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43872</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44322</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44831</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45049</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>45061</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43389</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43581</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>43873</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44167</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44188</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>44456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>44547</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44560</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>44571</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44693</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>44694</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44832</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44874</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>44888</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>45041</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>45089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>45093</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45126</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45140</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43355</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43363</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43384</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43385</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43385</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43385</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43389</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43389</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43403</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43404</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43427</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43436</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43451</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43474</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43494</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43494</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43497</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43500</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43501</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>43502</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>43531</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43551</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43551</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43557</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>43593</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43606</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43614</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43630</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>43630</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>43630</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>43656</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>43662</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>43664</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>43681</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>43696</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43705</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43714</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43734</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43770</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43791</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43797</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43798</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43798</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43801</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43819</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43847</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43847</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43860</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43861</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>43861</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43868</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>43873</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43881</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43882</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43887</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43887</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43892</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43893</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43895</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43898</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43900</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43903</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>43903</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43910</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43915</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43918</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>43921</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>43921</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43922</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43923</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43923</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43923</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43923</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43923</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43924</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43949</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>43965</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>43969</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>43978</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>43979</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43983</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43983</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43983</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43983</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43993</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>43999</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>44000</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44006</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44012</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44020</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44036</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44067</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44069</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44081</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44085</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>44085</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44085</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>44085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44090</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>44092</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44092</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44092</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44092</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44097</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44097</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44104</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44116</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44116</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44118</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>44119</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44119</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44120</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44123</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44127</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44127</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44131</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>44154</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>44154</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44154</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44159</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44165</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44166</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44168</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44174</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44188</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44188</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>44188</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>44188</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44188</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44209</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44218</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>44224</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44237</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         <v>44249</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>44274</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>44291</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44292</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>44299</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44302</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44316</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44316</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44316</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44316</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44316</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44322</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44333</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44333</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44336</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44337</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>44344</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44358</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44362</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44369</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44370</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>44370</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44370</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44370</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44377</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44377</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44386</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>44386</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44387</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44393</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44397</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44406</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44413</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>44420</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44439</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>44441</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44447</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44452</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44456</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44459</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44470</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44476</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44477</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44482</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44508</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>44512</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44516</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44516</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44516</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>44543</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44552</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44572</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44579</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44579</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44581</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44599</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44600</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44643</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44658</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44680</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44700</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>44701</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44706</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44711</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44720</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44720</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44729</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20108,7 +20108,7 @@
         <v>44730</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44733</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44741</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>44785</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44785</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44789</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44809</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44811</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44817</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44826</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20723,7 +20723,7 @@
         <v>44826</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44830</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44831</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>44831</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44833</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44844</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>44844</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>44848</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>44852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>44853</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44854</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44859</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44867</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>44869</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>44872</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>44872</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>44879</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>44880</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>44883</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44883</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44890</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44893</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44895</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>44903</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>44929</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44929</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>44942</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         <v>44945</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>44958</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44960</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44960</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44960</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44960</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44964</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44978</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44983</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44994</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44994</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>45001</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>45002</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>45021</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>45034</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>45034</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>45034</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>45034</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
         <v>45043</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45044</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>45044</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45054</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45058</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>45062</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>45062</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>45063</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>45063</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>45063</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24410,7 +24410,7 @@
         <v>45063</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>45063</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>45068</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>45068</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>45068</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>45068</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>45068</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>45072</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>45079</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>45082</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>45082</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>45093</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45098</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45105</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45112</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>45112</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>45113</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45114</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45117</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45118</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45127</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>45128</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>45131</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45131</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>45148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>45149</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>45149</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45163</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>

--- a/Översikt LUDVIKA.xlsx
+++ b/Översikt LUDVIKA.xlsx
@@ -572,7 +572,7 @@
         <v>44792</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44761</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>44221</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44937</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43801</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>45084</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44188</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>45072</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45099</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43872</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44322</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44831</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45049</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>45061</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43389</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43581</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>43873</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44167</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44188</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>44456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>44547</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44560</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>44571</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44693</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>44694</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44832</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44874</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>44888</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>45041</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>45089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>45093</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45126</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45140</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43355</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43363</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43384</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43385</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43385</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43385</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43389</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43389</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43403</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43404</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43427</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43436</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43451</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43474</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43494</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43494</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43497</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43500</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43501</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>43502</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>43531</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43551</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43551</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43557</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>43593</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43606</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43614</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43630</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>43630</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>43630</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>43656</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>43662</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>43664</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>43681</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>43696</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43705</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43714</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43734</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43770</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43791</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43797</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43798</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43798</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43801</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43819</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43847</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43847</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43860</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43861</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>43861</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43868</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>43873</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43881</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43882</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43887</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43887</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43892</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43893</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43895</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43898</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43900</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43903</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>43903</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43910</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43915</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43918</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>43921</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>43921</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43922</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43923</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43923</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43923</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43923</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43923</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43924</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43949</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>43965</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>43969</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>43978</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>43979</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43983</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43983</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43983</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43983</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43993</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>43999</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>44000</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44006</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44012</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44020</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44036</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44067</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44069</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44081</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44085</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>44085</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44085</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>44085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44090</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>44092</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44092</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44092</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44092</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44097</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44097</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44104</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44116</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44116</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44118</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>44119</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44119</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44120</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44123</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44127</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44127</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44131</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>44154</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>44154</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44154</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44159</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44165</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44166</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44168</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44174</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44188</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44188</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>44188</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>44188</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44188</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44209</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44218</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>44224</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44237</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         <v>44249</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>44274</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>44291</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44292</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>44299</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44302</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44316</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44316</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44316</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44316</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44316</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44322</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44333</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44333</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44336</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44337</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>44344</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44358</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44362</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44369</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44370</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>44370</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44370</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44370</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44377</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44377</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44386</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>44386</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44387</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44393</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44397</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44406</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44413</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>44420</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44439</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>44441</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44447</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44452</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44456</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44459</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44470</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44476</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44477</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44482</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44508</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>44512</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44516</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44516</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44516</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>44543</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44552</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44572</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44579</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44579</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44581</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44599</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44600</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44643</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44658</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44680</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44700</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>44701</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44706</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44711</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44720</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44720</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44729</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20108,7 +20108,7 @@
         <v>44730</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44733</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44741</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>44785</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44785</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44789</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44809</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44811</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44817</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44826</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20723,7 +20723,7 @@
         <v>44826</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44830</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44831</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>44831</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44833</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44844</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>44844</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>44848</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>44852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>44853</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44854</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44859</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44867</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>44869</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>44872</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>44872</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>44879</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>44880</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>44883</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44883</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44890</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44893</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44895</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>44903</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>44929</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44929</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>44942</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         <v>44945</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>44958</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44960</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44960</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44960</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44960</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44964</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44978</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44983</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44994</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44994</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>45001</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>45002</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>45021</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>45034</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>45034</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>45034</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>45034</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
         <v>45043</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45044</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>45044</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45054</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45058</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>45062</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>45062</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>45063</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>45063</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>45063</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24410,7 +24410,7 @@
         <v>45063</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>45063</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>45068</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>45068</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>45068</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>45068</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>45068</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>45072</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>45079</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>45082</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>45082</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>45093</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45098</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45105</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45112</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>45112</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>45113</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45114</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45117</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45118</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45127</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>45128</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>45131</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45131</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>45148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>45149</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>45149</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45163</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>

--- a/Översikt LUDVIKA.xlsx
+++ b/Översikt LUDVIKA.xlsx
@@ -572,7 +572,7 @@
         <v>44792</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44761</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>44221</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44937</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43801</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>45084</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44188</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>45072</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45099</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43872</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44322</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44831</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45049</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>45061</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43389</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43581</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>43873</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44167</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44188</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>44456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>44547</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44560</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>44571</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44693</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>44694</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44832</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44874</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>44888</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>45041</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>45089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>45093</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45126</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45140</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43355</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43363</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43384</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43385</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43385</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43385</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43389</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43389</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43403</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43404</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43427</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43436</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43451</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43474</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43494</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43494</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43497</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43500</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43501</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>43502</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>43531</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43551</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43551</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43557</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>43593</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43606</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43614</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43630</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>43630</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>43630</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>43656</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>43662</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>43664</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>43681</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>43696</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43705</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43714</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43734</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43770</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43791</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43797</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43798</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43798</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43801</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43819</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43847</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43847</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43860</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43861</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>43861</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43868</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>43873</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43881</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43882</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43887</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43887</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43892</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43893</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43895</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43898</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43900</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43903</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>43903</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43910</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43915</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43918</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>43921</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>43921</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43922</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43923</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43923</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43923</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43923</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43923</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43924</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43949</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>43965</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>43969</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>43978</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>43979</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43983</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43983</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43983</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43983</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43993</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>43999</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>44000</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44006</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44012</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44020</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44036</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44067</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44069</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44081</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44085</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>44085</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44085</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>44085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44090</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>44092</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44092</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44092</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44092</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44097</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44097</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44104</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44116</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44116</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44118</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>44119</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44119</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44120</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44123</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44127</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44127</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44131</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>44154</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>44154</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44154</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44159</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44165</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44166</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44168</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44174</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44188</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44188</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>44188</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>44188</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44188</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44209</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44218</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>44224</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44237</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         <v>44249</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>44274</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>44291</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44292</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>44299</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44302</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44316</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44316</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44316</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44316</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44316</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44322</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44333</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44333</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44336</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44337</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>44344</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44358</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44362</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44369</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44370</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>44370</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44370</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44370</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44377</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44377</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44386</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>44386</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44387</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44393</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44397</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44406</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44413</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>44420</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44439</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>44441</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44447</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44452</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44456</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44459</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44470</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44476</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44477</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44482</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44508</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>44512</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44516</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44516</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44516</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>44543</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44552</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44572</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44579</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44579</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44581</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44599</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44600</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44643</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44658</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44680</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44700</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>44701</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44706</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44711</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44720</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44720</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44729</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20108,7 +20108,7 @@
         <v>44730</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44733</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44741</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>44785</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44785</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44789</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44809</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44811</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44817</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44826</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20723,7 +20723,7 @@
         <v>44826</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44830</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44831</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>44831</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44833</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44844</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>44844</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>44848</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>44852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>44853</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44854</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44859</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44867</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>44869</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>44872</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>44872</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>44879</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>44880</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>44883</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44883</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44890</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44893</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44895</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>44903</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>44929</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44929</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>44942</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         <v>44945</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>44958</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44960</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44960</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44960</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44960</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44964</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44978</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44983</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44994</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44994</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>45001</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>45002</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>45021</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>45034</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>45034</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>45034</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>45034</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
         <v>45043</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45044</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>45044</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45054</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45058</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>45062</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>45062</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>45063</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>45063</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>45063</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24410,7 +24410,7 @@
         <v>45063</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>45063</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>45068</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>45068</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>45068</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>45068</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>45068</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>45072</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>45079</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>45082</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>45082</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>45093</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45098</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45105</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45112</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>45112</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>45113</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45114</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45117</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45118</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45127</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>45128</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>45131</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45131</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>45148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>45149</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>45149</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45163</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>

--- a/Översikt LUDVIKA.xlsx
+++ b/Översikt LUDVIKA.xlsx
@@ -572,7 +572,7 @@
         <v>44792</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44761</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>44221</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44937</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43801</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>45084</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44188</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>45072</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45099</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43872</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44322</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44831</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45049</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>45061</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43389</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43581</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>43873</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44167</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44188</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>44456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>44547</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44560</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>44571</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44693</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>44694</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44832</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44874</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>44888</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>45041</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>45089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>45093</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45126</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45140</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43355</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43363</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43384</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43385</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43385</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43385</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43389</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43389</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43403</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43404</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43427</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43436</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43451</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43474</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43494</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43494</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43497</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43500</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43501</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>43502</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>43531</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43551</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43551</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43557</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>43593</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43606</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43614</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43630</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>43630</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>43630</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>43656</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>43662</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>43664</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>43681</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>43696</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43705</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43714</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43734</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43770</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43791</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43797</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43798</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43798</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43801</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43819</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43847</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43847</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43860</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43861</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>43861</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43868</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>43873</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43881</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43882</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43887</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43887</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43892</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43893</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43895</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43898</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43900</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43903</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>43903</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43910</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43915</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43918</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>43921</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>43921</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43922</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43923</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43923</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43923</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43923</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43923</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43924</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43949</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>43965</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>43969</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>43978</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>43979</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43983</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43983</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43983</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43983</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43993</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>43999</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>44000</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44006</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44012</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44020</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44036</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44067</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44069</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44081</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44085</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>44085</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44085</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>44085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44090</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>44092</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44092</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44092</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44092</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44097</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44097</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44104</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44116</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44116</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44118</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>44119</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44119</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44120</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44123</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44127</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44127</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44131</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>44154</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>44154</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44154</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44159</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44165</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44166</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44168</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44174</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44188</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44188</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>44188</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>44188</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44188</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44209</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44218</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>44224</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44237</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         <v>44249</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>44274</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>44291</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44292</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>44299</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44302</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44316</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44316</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44316</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44316</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44316</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44322</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44333</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44333</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44336</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44337</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>44344</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44358</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44362</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44369</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44370</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>44370</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44370</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44370</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44377</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44377</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44386</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>44386</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44387</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44393</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44397</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44406</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44413</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>44420</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44439</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>44441</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44447</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44452</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44456</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44459</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44470</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44476</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44477</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44482</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44508</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>44512</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44516</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44516</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44516</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>44543</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44552</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44572</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44579</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44579</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44581</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44599</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44600</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44643</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44658</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44680</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44700</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>44701</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44706</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44711</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44720</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44720</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44729</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20108,7 +20108,7 @@
         <v>44730</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44733</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44741</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>44785</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44785</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44789</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44809</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44811</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44817</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44826</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20723,7 +20723,7 @@
         <v>44826</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44830</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44831</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>44831</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44833</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44844</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>44844</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>44848</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>44852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>44853</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44854</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44859</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44867</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>44869</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>44872</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>44872</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>44879</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>44880</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>44883</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44883</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44890</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44893</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44895</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>44903</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>44929</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44929</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>44942</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         <v>44945</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>44958</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44960</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44960</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44960</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44960</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44964</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44978</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44983</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44994</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44994</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>45001</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>45002</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>45021</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>45034</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>45034</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>45034</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>45034</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
         <v>45043</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45044</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>45044</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45054</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45058</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>45062</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>45062</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>45063</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>45063</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>45063</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24410,7 +24410,7 @@
         <v>45063</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>45063</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>45068</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>45068</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>45068</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>45068</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>45068</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>45072</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>45079</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>45082</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>45082</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>45093</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45098</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45105</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45112</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>45112</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>45113</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45114</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45117</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45118</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45127</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>45128</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>45131</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45131</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>45148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>45149</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>45149</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45163</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>

--- a/Översikt LUDVIKA.xlsx
+++ b/Översikt LUDVIKA.xlsx
@@ -572,7 +572,7 @@
         <v>44792</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,27 +667,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 34322-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 34322-2022.xlsx", "A 34322-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 34322-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 34322-2022.png", "A 34322-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 34322-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 34322-2022.docx", "A 34322-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 34322-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 34322-2022.docx", "A 34322-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 34322-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 34322-2022.docx", "A 34322-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 34322-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 34322-2022.docx", "A 34322-2022")</f>
         <v/>
       </c>
     </row>
@@ -701,7 +701,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,31 +771,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 21672-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 21672-2021.xlsx", "A 21672-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 21672-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 21672-2021.png", "A 21672-2021")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/knärot/A 21672-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/knärot/A 21672-2021.png", "A 21672-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 21672-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 21672-2021.docx", "A 21672-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 21672-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 21672-2021.docx", "A 21672-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 21672-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 21672-2021.docx", "A 21672-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 21672-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 21672-2021.docx", "A 21672-2021")</f>
         <v/>
       </c>
     </row>
@@ -809,7 +809,7 @@
         <v>44761</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,27 +873,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 30447-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 30447-2022.xlsx", "A 30447-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 30447-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 30447-2022.png", "A 30447-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 30447-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 30447-2022.docx", "A 30447-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 30447-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 30447-2022.docx", "A 30447-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 30447-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 30447-2022.docx", "A 30447-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 30447-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 30447-2022.docx", "A 30447-2022")</f>
         <v/>
       </c>
     </row>
@@ -907,7 +907,7 @@
         <v>44221</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -970,27 +970,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 3635-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 3635-2021.xlsx", "A 3635-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 3635-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 3635-2021.png", "A 3635-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 3635-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 3635-2021.docx", "A 3635-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 3635-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 3635-2021.docx", "A 3635-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 3635-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 3635-2021.docx", "A 3635-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 3635-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 3635-2021.docx", "A 3635-2021")</f>
         <v/>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
         <v>44937</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,27 +1067,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 1912-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 1912-2023.xlsx", "A 1912-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 1912-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 1912-2023.png", "A 1912-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 1912-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 1912-2023.docx", "A 1912-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 1912-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 1912-2023.docx", "A 1912-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 1912-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 1912-2023.docx", "A 1912-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 1912-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 1912-2023.docx", "A 1912-2023")</f>
         <v/>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
         <v>43801</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1161,27 +1161,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 64864-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 64864-2019.xlsx", "A 64864-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 64864-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 64864-2019.png", "A 64864-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 64864-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 64864-2019.docx", "A 64864-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 64864-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 64864-2019.docx", "A 64864-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 64864-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 64864-2019.docx", "A 64864-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 64864-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 64864-2019.docx", "A 64864-2019")</f>
         <v/>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
         <v>45084</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1255,27 +1255,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 24739-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 24739-2023.xlsx", "A 24739-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 24739-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 24739-2023.png", "A 24739-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 24739-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 24739-2023.docx", "A 24739-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 24739-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 24739-2023.docx", "A 24739-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 24739-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 24739-2023.docx", "A 24739-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 24739-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 24739-2023.docx", "A 24739-2023")</f>
         <v/>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1343,27 +1343,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 44535-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 44535-2021.xlsx", "A 44535-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 44535-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 44535-2021.png", "A 44535-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 44535-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 44535-2021.docx", "A 44535-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 44535-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 44535-2021.docx", "A 44535-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 44535-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 44535-2021.docx", "A 44535-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 44535-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 44535-2021.docx", "A 44535-2021")</f>
         <v/>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
         <v>45013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1436,27 +1436,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 14637-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 14637-2023.xlsx", "A 14637-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 14637-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 14637-2023.png", "A 14637-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 14637-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 14637-2023.docx", "A 14637-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 14637-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 14637-2023.docx", "A 14637-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 14637-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 14637-2023.docx", "A 14637-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 14637-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 14637-2023.docx", "A 14637-2023")</f>
         <v/>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
         <v>43452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1528,27 +1528,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 70912-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 70912-2018.xlsx", "A 70912-2018")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 70912-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 70912-2018.png", "A 70912-2018")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 70912-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 70912-2018.docx", "A 70912-2018")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 70912-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 70912-2018.docx", "A 70912-2018")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 70912-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 70912-2018.docx", "A 70912-2018")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 70912-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 70912-2018.docx", "A 70912-2018")</f>
         <v/>
       </c>
     </row>
@@ -1562,7 +1562,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1615,31 +1615,31 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 10212-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 10212-2019.xlsx", "A 10212-2019")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 10212-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 10212-2019.png", "A 10212-2019")</f>
         <v/>
       </c>
       <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/knärot/A 10212-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/knärot/A 10212-2019.png", "A 10212-2019")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 10212-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 10212-2019.docx", "A 10212-2019")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 10212-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 10212-2019.docx", "A 10212-2019")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 10212-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 10212-2019.docx", "A 10212-2019")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 10212-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 10212-2019.docx", "A 10212-2019")</f>
         <v/>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1706,27 +1706,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 29285-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 29285-2020.xlsx", "A 29285-2020")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 29285-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 29285-2020.png", "A 29285-2020")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 29285-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 29285-2020.docx", "A 29285-2020")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 29285-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 29285-2020.docx", "A 29285-2020")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 29285-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 29285-2020.docx", "A 29285-2020")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 29285-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 29285-2020.docx", "A 29285-2020")</f>
         <v/>
       </c>
     </row>
@@ -1740,7 +1740,7 @@
         <v>44188</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1793,27 +1793,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 69138-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 69138-2020.xlsx", "A 69138-2020")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 69138-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 69138-2020.png", "A 69138-2020")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 69138-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 69138-2020.docx", "A 69138-2020")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 69138-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 69138-2020.docx", "A 69138-2020")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 69138-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 69138-2020.docx", "A 69138-2020")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 69138-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 69138-2020.docx", "A 69138-2020")</f>
         <v/>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
         <v>45072</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 22910-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 22910-2023.xlsx", "A 22910-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 22910-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 22910-2023.png", "A 22910-2023")</f>
         <v/>
       </c>
       <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/knärot/A 22910-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/knärot/A 22910-2023.png", "A 22910-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 22910-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 22910-2023.docx", "A 22910-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 22910-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 22910-2023.docx", "A 22910-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 22910-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 22910-2023.docx", "A 22910-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 22910-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 22910-2023.docx", "A 22910-2023")</f>
         <v/>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
         <v>45099</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1981,27 +1981,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 28119-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 28119-2023.xlsx", "A 28119-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 28119-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 28119-2023.png", "A 28119-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 28119-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 28119-2023.docx", "A 28119-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 28119-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 28119-2023.docx", "A 28119-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 28119-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 28119-2023.docx", "A 28119-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 28119-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 28119-2023.docx", "A 28119-2023")</f>
         <v/>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
         <v>43872</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2067,27 +2067,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 7704-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 7704-2020.xlsx", "A 7704-2020")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 7704-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 7704-2020.png", "A 7704-2020")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 7704-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 7704-2020.docx", "A 7704-2020")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 7704-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 7704-2020.docx", "A 7704-2020")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 7704-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 7704-2020.docx", "A 7704-2020")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 7704-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 7704-2020.docx", "A 7704-2020")</f>
         <v/>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
         <v>44322</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2158,27 +2158,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 21885-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 21885-2021.xlsx", "A 21885-2021")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 21885-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 21885-2021.png", "A 21885-2021")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 21885-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 21885-2021.docx", "A 21885-2021")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 21885-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 21885-2021.docx", "A 21885-2021")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 21885-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 21885-2021.docx", "A 21885-2021")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 21885-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 21885-2021.docx", "A 21885-2021")</f>
         <v/>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
         <v>44480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2244,27 +2244,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 56632-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 56632-2021.xlsx", "A 56632-2021")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 56632-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 56632-2021.png", "A 56632-2021")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 56632-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 56632-2021.docx", "A 56632-2021")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 56632-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 56632-2021.docx", "A 56632-2021")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 56632-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 56632-2021.docx", "A 56632-2021")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 56632-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 56632-2021.docx", "A 56632-2021")</f>
         <v/>
       </c>
     </row>
@@ -2278,7 +2278,7 @@
         <v>44831</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2335,27 +2335,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 42558-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 42558-2022.xlsx", "A 42558-2022")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 42558-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 42558-2022.png", "A 42558-2022")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 42558-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 42558-2022.docx", "A 42558-2022")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 42558-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 42558-2022.docx", "A 42558-2022")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 42558-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 42558-2022.docx", "A 42558-2022")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 42558-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 42558-2022.docx", "A 42558-2022")</f>
         <v/>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
         <v>45049</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2421,27 +2421,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 19338-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 19338-2023.xlsx", "A 19338-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 19338-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 19338-2023.png", "A 19338-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 19338-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 19338-2023.docx", "A 19338-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 19338-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 19338-2023.docx", "A 19338-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 19338-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 19338-2023.docx", "A 19338-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 19338-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 19338-2023.docx", "A 19338-2023")</f>
         <v/>
       </c>
     </row>
@@ -2455,7 +2455,7 @@
         <v>45061</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2512,27 +2512,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 21074-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 21074-2023.xlsx", "A 21074-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 21074-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 21074-2023.png", "A 21074-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 21074-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 21074-2023.docx", "A 21074-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 21074-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 21074-2023.docx", "A 21074-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 21074-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 21074-2023.docx", "A 21074-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 21074-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 21074-2023.docx", "A 21074-2023")</f>
         <v/>
       </c>
     </row>
@@ -2546,7 +2546,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2603,27 +2603,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 32643-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 32643-2023.xlsx", "A 32643-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 32643-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 32643-2023.png", "A 32643-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 32643-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 32643-2023.docx", "A 32643-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 32643-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 32643-2023.docx", "A 32643-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 32643-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 32643-2023.docx", "A 32643-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 32643-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 32643-2023.docx", "A 32643-2023")</f>
         <v/>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
         <v>43389</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2693,27 +2693,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 72666-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 72666-2018.xlsx", "A 72666-2018")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 72666-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 72666-2018.png", "A 72666-2018")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 72666-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 72666-2018.docx", "A 72666-2018")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 72666-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 72666-2018.docx", "A 72666-2018")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 72666-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 72666-2018.docx", "A 72666-2018")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 72666-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 72666-2018.docx", "A 72666-2018")</f>
         <v/>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2783,27 +2783,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 71201-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 71201-2018.xlsx", "A 71201-2018")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 71201-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 71201-2018.png", "A 71201-2018")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 71201-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 71201-2018.docx", "A 71201-2018")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 71201-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 71201-2018.docx", "A 71201-2018")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 71201-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 71201-2018.docx", "A 71201-2018")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 71201-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 71201-2018.docx", "A 71201-2018")</f>
         <v/>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
         <v>43581</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2868,27 +2868,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 21672-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 21672-2019.xlsx", "A 21672-2019")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 21672-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 21672-2019.png", "A 21672-2019")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 21672-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 21672-2019.docx", "A 21672-2019")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 21672-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 21672-2019.docx", "A 21672-2019")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 21672-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 21672-2019.docx", "A 21672-2019")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 21672-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 21672-2019.docx", "A 21672-2019")</f>
         <v/>
       </c>
     </row>
@@ -2902,7 +2902,7 @@
         <v>43873</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2958,31 +2958,31 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 7849-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 7849-2020.xlsx", "A 7849-2020")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 7849-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 7849-2020.png", "A 7849-2020")</f>
         <v/>
       </c>
       <c r="U27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/knärot/A 7849-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/knärot/A 7849-2020.png", "A 7849-2020")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 7849-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 7849-2020.docx", "A 7849-2020")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 7849-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 7849-2020.docx", "A 7849-2020")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 7849-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 7849-2020.docx", "A 7849-2020")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 7849-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 7849-2020.docx", "A 7849-2020")</f>
         <v/>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
         <v>44167</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3052,31 +3052,31 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 64068-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 64068-2020.xlsx", "A 64068-2020")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 64068-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 64068-2020.png", "A 64068-2020")</f>
         <v/>
       </c>
       <c r="U28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/knärot/A 64068-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/knärot/A 64068-2020.png", "A 64068-2020")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 64068-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 64068-2020.docx", "A 64068-2020")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 64068-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 64068-2020.docx", "A 64068-2020")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 64068-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 64068-2020.docx", "A 64068-2020")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 64068-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 64068-2020.docx", "A 64068-2020")</f>
         <v/>
       </c>
     </row>
@@ -3090,7 +3090,7 @@
         <v>44188</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3146,27 +3146,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 69166-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 69166-2020.xlsx", "A 69166-2020")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 69166-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 69166-2020.png", "A 69166-2020")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 69166-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 69166-2020.docx", "A 69166-2020")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 69166-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 69166-2020.docx", "A 69166-2020")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 69166-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 69166-2020.docx", "A 69166-2020")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 69166-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 69166-2020.docx", "A 69166-2020")</f>
         <v/>
       </c>
     </row>
@@ -3180,7 +3180,7 @@
         <v>44410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3231,27 +3231,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 38674-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 38674-2021.xlsx", "A 38674-2021")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 38674-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 38674-2021.png", "A 38674-2021")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 38674-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 38674-2021.docx", "A 38674-2021")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 38674-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 38674-2021.docx", "A 38674-2021")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 38674-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 38674-2021.docx", "A 38674-2021")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 38674-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 38674-2021.docx", "A 38674-2021")</f>
         <v/>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
         <v>44456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3321,27 +3321,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 50052-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 50052-2021.xlsx", "A 50052-2021")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 50052-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 50052-2021.png", "A 50052-2021")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 50052-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 50052-2021.docx", "A 50052-2021")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 50052-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 50052-2021.docx", "A 50052-2021")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 50052-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 50052-2021.docx", "A 50052-2021")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 50052-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 50052-2021.docx", "A 50052-2021")</f>
         <v/>
       </c>
     </row>
@@ -3355,7 +3355,7 @@
         <v>44547</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3411,27 +3411,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 72858-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 72858-2021.xlsx", "A 72858-2021")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 72858-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 72858-2021.png", "A 72858-2021")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 72858-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 72858-2021.docx", "A 72858-2021")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 72858-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 72858-2021.docx", "A 72858-2021")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 72858-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 72858-2021.docx", "A 72858-2021")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 72858-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 72858-2021.docx", "A 72858-2021")</f>
         <v/>
       </c>
     </row>
@@ -3445,7 +3445,7 @@
         <v>44560</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3501,27 +3501,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 74401-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 74401-2021.xlsx", "A 74401-2021")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 74401-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 74401-2021.png", "A 74401-2021")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 74401-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 74401-2021.docx", "A 74401-2021")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 74401-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 74401-2021.docx", "A 74401-2021")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 74401-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 74401-2021.docx", "A 74401-2021")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 74401-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 74401-2021.docx", "A 74401-2021")</f>
         <v/>
       </c>
     </row>
@@ -3535,7 +3535,7 @@
         <v>44571</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3591,27 +3591,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 927-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 927-2022.xlsx", "A 927-2022")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 927-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 927-2022.png", "A 927-2022")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 927-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 927-2022.docx", "A 927-2022")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 927-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 927-2022.docx", "A 927-2022")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 927-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 927-2022.docx", "A 927-2022")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 927-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 927-2022.docx", "A 927-2022")</f>
         <v/>
       </c>
     </row>
@@ -3625,7 +3625,7 @@
         <v>44693</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3681,27 +3681,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 19512-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 19512-2022.xlsx", "A 19512-2022")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 19512-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 19512-2022.png", "A 19512-2022")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 19512-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 19512-2022.docx", "A 19512-2022")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 19512-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 19512-2022.docx", "A 19512-2022")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 19512-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 19512-2022.docx", "A 19512-2022")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 19512-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 19512-2022.docx", "A 19512-2022")</f>
         <v/>
       </c>
     </row>
@@ -3715,7 +3715,7 @@
         <v>44694</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3771,27 +3771,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 19717-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 19717-2022.xlsx", "A 19717-2022")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 19717-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 19717-2022.png", "A 19717-2022")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 19717-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 19717-2022.docx", "A 19717-2022")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 19717-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 19717-2022.docx", "A 19717-2022")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 19717-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 19717-2022.docx", "A 19717-2022")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 19717-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 19717-2022.docx", "A 19717-2022")</f>
         <v/>
       </c>
     </row>
@@ -3805,7 +3805,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3856,27 +3856,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 21499-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 21499-2022.xlsx", "A 21499-2022")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 21499-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 21499-2022.png", "A 21499-2022")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 21499-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 21499-2022.docx", "A 21499-2022")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 21499-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 21499-2022.docx", "A 21499-2022")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 21499-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 21499-2022.docx", "A 21499-2022")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 21499-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 21499-2022.docx", "A 21499-2022")</f>
         <v/>
       </c>
     </row>
@@ -3890,7 +3890,7 @@
         <v>44832</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3946,27 +3946,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 42758-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 42758-2022.xlsx", "A 42758-2022")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 42758-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 42758-2022.png", "A 42758-2022")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 42758-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 42758-2022.docx", "A 42758-2022")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 42758-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 42758-2022.docx", "A 42758-2022")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 42758-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 42758-2022.docx", "A 42758-2022")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 42758-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 42758-2022.docx", "A 42758-2022")</f>
         <v/>
       </c>
     </row>
@@ -3980,7 +3980,7 @@
         <v>44874</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4036,27 +4036,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 52452-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 52452-2022.xlsx", "A 52452-2022")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 52452-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 52452-2022.png", "A 52452-2022")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 52452-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 52452-2022.docx", "A 52452-2022")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 52452-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 52452-2022.docx", "A 52452-2022")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 52452-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 52452-2022.docx", "A 52452-2022")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 52452-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 52452-2022.docx", "A 52452-2022")</f>
         <v/>
       </c>
     </row>
@@ -4070,7 +4070,7 @@
         <v>44888</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4126,27 +4126,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 55550-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 55550-2022.xlsx", "A 55550-2022")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 55550-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 55550-2022.png", "A 55550-2022")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 55550-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 55550-2022.docx", "A 55550-2022")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 55550-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 55550-2022.docx", "A 55550-2022")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 55550-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 55550-2022.docx", "A 55550-2022")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 55550-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 55550-2022.docx", "A 55550-2022")</f>
         <v/>
       </c>
     </row>
@@ -4160,7 +4160,7 @@
         <v>45041</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4211,27 +4211,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 18298-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 18298-2023.xlsx", "A 18298-2023")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 18298-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 18298-2023.png", "A 18298-2023")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 18298-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 18298-2023.docx", "A 18298-2023")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 18298-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 18298-2023.docx", "A 18298-2023")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 18298-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 18298-2023.docx", "A 18298-2023")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 18298-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 18298-2023.docx", "A 18298-2023")</f>
         <v/>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
         <v>45089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4296,27 +4296,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 25588-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 25588-2023.xlsx", "A 25588-2023")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 25588-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 25588-2023.png", "A 25588-2023")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 25588-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 25588-2023.docx", "A 25588-2023")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 25588-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 25588-2023.docx", "A 25588-2023")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 25588-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 25588-2023.docx", "A 25588-2023")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 25588-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 25588-2023.docx", "A 25588-2023")</f>
         <v/>
       </c>
     </row>
@@ -4330,7 +4330,7 @@
         <v>45093</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4386,27 +4386,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 26850-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 26850-2023.xlsx", "A 26850-2023")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 26850-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 26850-2023.png", "A 26850-2023")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 26850-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 26850-2023.docx", "A 26850-2023")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 26850-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 26850-2023.docx", "A 26850-2023")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 26850-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 26850-2023.docx", "A 26850-2023")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 26850-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 26850-2023.docx", "A 26850-2023")</f>
         <v/>
       </c>
     </row>
@@ -4420,7 +4420,7 @@
         <v>45126</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4476,27 +4476,27 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 33055-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 33055-2023.xlsx", "A 33055-2023")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 33055-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 33055-2023.png", "A 33055-2023")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 33055-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 33055-2023.docx", "A 33055-2023")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 33055-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 33055-2023.docx", "A 33055-2023")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 33055-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 33055-2023.docx", "A 33055-2023")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 33055-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 33055-2023.docx", "A 33055-2023")</f>
         <v/>
       </c>
     </row>
@@ -4510,7 +4510,7 @@
         <v>45140</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4566,27 +4566,27 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 34539-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/artfynd/A 34539-2023.xlsx", "A 34539-2023")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 34539-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/kartor/A 34539-2023.png", "A 34539-2023")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 34539-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 34539-2023.docx", "A 34539-2023")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 34539-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 34539-2023.docx", "A 34539-2023")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 34539-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 34539-2023.docx", "A 34539-2023")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 34539-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 34539-2023.docx", "A 34539-2023")</f>
         <v/>
       </c>
     </row>
@@ -4600,7 +4600,7 @@
         <v>43355</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43363</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43384</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43385</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43385</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43385</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43389</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43389</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43403</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43404</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43427</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43436</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43451</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43474</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43494</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43494</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43497</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43500</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43501</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>43502</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>43531</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43551</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43551</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43557</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>43593</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43606</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43614</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43630</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>43630</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>43630</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>43656</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>43662</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>43664</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>43681</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>43696</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43705</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43714</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43734</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43770</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43791</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43797</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43798</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43798</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43801</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43819</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43847</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43847</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43860</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43861</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>43861</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43868</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>43873</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43881</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43882</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43887</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43887</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43892</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43893</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43895</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43898</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43900</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43903</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>43903</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43910</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43915</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43918</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>43921</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>43921</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43922</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43923</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43923</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43923</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43923</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43923</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43924</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43949</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>43965</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>43969</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>43978</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>43979</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43983</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43983</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43983</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43983</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43993</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>43999</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>44000</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44006</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44012</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44020</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44036</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44067</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44069</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44081</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44085</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>44085</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44085</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>44085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44090</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>44092</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44092</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44092</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44092</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44097</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44097</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44104</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44116</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44116</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44118</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>44119</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44119</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44120</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44123</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44127</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44127</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44131</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>44154</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>44154</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44154</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44159</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44165</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44166</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44168</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44174</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44188</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44188</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>44188</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>44188</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44188</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44209</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44218</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>44224</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44237</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         <v>44249</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>44274</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>44291</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44292</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>44299</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44302</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44316</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44316</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44316</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44316</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44316</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44322</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44333</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44333</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44336</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44337</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>44344</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44358</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44362</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44369</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44370</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>44370</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44370</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44370</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44377</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44377</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44386</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>44386</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44387</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44393</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44397</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44406</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44413</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>44420</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44439</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>44441</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44447</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44452</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44456</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44459</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44470</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44476</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44477</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44482</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44508</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>44512</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44516</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44516</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44516</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>44543</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44552</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44572</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44579</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44579</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44581</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44599</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44600</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44643</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44658</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44680</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44700</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>44701</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44706</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44711</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44720</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44720</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44729</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20108,7 +20108,7 @@
         <v>44730</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44733</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44741</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>44785</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44785</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44789</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44809</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44811</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44817</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44826</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20723,7 +20723,7 @@
         <v>44826</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44830</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44831</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>44831</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44833</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44844</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>44844</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>44848</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>44852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>44853</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44854</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44859</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44867</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>44869</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>44872</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>44872</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>44879</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>44880</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>44883</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44883</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44890</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44893</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44895</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>44903</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>44929</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44929</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>44942</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         <v>44945</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>44958</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44960</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44960</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44960</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44960</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44964</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44978</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44983</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44994</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44994</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>45001</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>45002</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>45021</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>45034</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>45034</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>45034</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>45034</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
         <v>45043</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45044</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>45044</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45054</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45058</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>45062</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>45062</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>45063</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>45063</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>45063</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24410,7 +24410,7 @@
         <v>45063</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>45063</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>45068</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>45068</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>45068</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>45068</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>45068</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>45072</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24876,23 +24876,23 @@
       </c>
       <c r="R383" s="2" t="inlineStr"/>
       <c r="U383">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/knärot/A 22882-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/knärot/A 22882-2023.png", "A 22882-2023")</f>
         <v/>
       </c>
       <c r="V383">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 22882-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomål/A 22882-2023.docx", "A 22882-2023")</f>
         <v/>
       </c>
       <c r="W383">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 22882-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/klagomålsmail/A 22882-2023.docx", "A 22882-2023")</f>
         <v/>
       </c>
       <c r="X383">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 22882-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsyn/A 22882-2023.docx", "A 22882-2023")</f>
         <v/>
       </c>
       <c r="Y383">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 22882-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LUDVIKA/tillsynsmail/A 22882-2023.docx", "A 22882-2023")</f>
         <v/>
       </c>
     </row>
@@ -24906,7 +24906,7 @@
         <v>45079</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>45082</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>45082</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>45093</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45098</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45105</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45112</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>45112</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>45113</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45114</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45117</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45118</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45127</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>45128</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>45131</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45131</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>45148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>45149</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>45149</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45163</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>

--- a/Översikt LUDVIKA.xlsx
+++ b/Översikt LUDVIKA.xlsx
@@ -572,7 +572,7 @@
         <v>44792</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44761</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>44221</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44937</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43801</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>45084</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44188</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>45072</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45099</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43872</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44322</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44831</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45049</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>45061</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43389</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43581</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>43873</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44167</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44188</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>44456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>44547</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44560</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>44571</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44693</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>44694</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44832</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44874</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>44888</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>45041</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>45089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>45093</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45126</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45140</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43355</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43363</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43384</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43385</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43385</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43385</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43389</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43389</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43403</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43404</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43427</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43436</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43451</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43474</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43494</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43494</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43497</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43500</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43501</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>43502</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>43531</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43551</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43551</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43557</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>43593</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43606</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43614</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43630</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>43630</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>43630</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>43656</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>43662</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>43664</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>43681</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>43696</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43705</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43714</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43734</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43770</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43791</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43797</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43798</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43798</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43801</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43819</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43847</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43847</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43860</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43861</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>43861</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43868</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>43873</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43881</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43882</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43887</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43887</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43892</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43893</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43895</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43898</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43900</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43903</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>43903</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43910</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43915</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43918</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>43921</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>43921</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43922</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43923</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43923</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43923</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43923</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43923</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43924</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43949</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>43965</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>43969</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>43978</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>43979</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43983</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43983</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43983</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43983</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43993</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>43999</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>44000</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44006</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44012</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44020</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44036</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44067</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44069</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44081</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44085</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>44085</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44085</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>44085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44090</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>44092</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44092</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44092</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44092</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44097</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44097</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44104</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44116</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44116</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44118</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>44119</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44119</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44120</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44123</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44127</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44127</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44131</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>44154</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>44154</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44154</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44159</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44165</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44166</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44168</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44174</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44188</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44188</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>44188</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>44188</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44188</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44209</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44218</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>44224</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44237</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         <v>44249</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>44274</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>44291</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44292</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>44299</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44302</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44316</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44316</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44316</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44316</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44316</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44322</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44333</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44333</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44336</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44337</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>44344</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44358</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44362</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44369</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44370</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>44370</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44370</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44370</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44377</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44377</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44386</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>44386</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44387</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44393</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44397</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44406</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44413</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>44420</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44439</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>44441</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44447</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44452</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44456</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44459</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44470</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44476</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44477</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44482</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44508</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>44512</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44516</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44516</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44516</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>44543</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44552</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44572</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44579</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44579</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44581</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44599</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44600</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44643</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44658</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44680</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44700</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>44701</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44706</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44711</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44720</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44720</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44729</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20108,7 +20108,7 @@
         <v>44730</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44733</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44741</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>44785</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44785</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44789</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44809</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44811</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44817</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44826</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20723,7 +20723,7 @@
         <v>44826</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44830</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44831</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>44831</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44833</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44844</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>44844</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>44848</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>44852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>44853</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44854</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44859</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44867</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>44869</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>44872</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>44872</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>44879</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>44880</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>44883</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44883</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44890</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44893</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44895</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>44903</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>44929</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44929</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>44942</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         <v>44945</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>44958</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44960</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44960</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44960</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44960</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44964</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44978</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44983</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44994</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44994</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>45001</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>45002</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>45021</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>45034</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>45034</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>45034</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>45034</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
         <v>45043</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45044</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>45044</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45054</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45058</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>45062</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>45062</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>45063</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>45063</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>45063</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24410,7 +24410,7 @@
         <v>45063</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>45063</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>45068</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>45068</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>45068</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>45068</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>45068</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>45072</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>45079</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>45082</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>45082</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>45093</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45098</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45105</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45112</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>45112</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>45113</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45114</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45117</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45118</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45127</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>45128</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>45131</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45131</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>45148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>45149</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>45149</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45163</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>

--- a/Översikt LUDVIKA.xlsx
+++ b/Översikt LUDVIKA.xlsx
@@ -572,7 +572,7 @@
         <v>44792</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44761</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>44221</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44937</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43801</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>45084</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44188</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>45072</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45099</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43872</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44322</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44831</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45049</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>45061</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43389</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43581</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>43873</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44167</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44188</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>44456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>44547</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44560</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>44571</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44693</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>44694</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44832</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44874</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>44888</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>45041</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>45089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>45093</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45126</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45140</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43355</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43363</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43384</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43385</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43385</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43385</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43389</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43389</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43403</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43404</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43427</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43436</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43451</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43474</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43494</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43494</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43497</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43500</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43501</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>43502</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>43531</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43551</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43551</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43557</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>43593</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43606</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43614</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43630</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>43630</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>43630</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>43656</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>43662</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>43664</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>43681</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>43696</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43705</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43714</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43734</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43770</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43791</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43797</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43798</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43798</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43801</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43819</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43847</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43847</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43860</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43861</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>43861</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43868</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>43873</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43881</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43882</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43887</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43887</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43892</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43893</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43895</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43898</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43900</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43903</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>43903</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43910</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43915</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43918</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>43921</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>43921</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43922</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43923</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43923</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43923</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43923</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43923</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43924</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43949</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>43965</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>43969</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>43978</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>43979</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43983</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43983</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43983</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43983</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43993</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>43999</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>44000</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44006</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44012</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44020</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44036</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44067</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44069</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44081</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44085</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>44085</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44085</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>44085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44090</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>44092</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44092</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44092</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44092</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44097</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44097</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44104</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44116</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44116</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44118</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>44119</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44119</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44120</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44123</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44127</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44127</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44131</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>44154</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>44154</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44154</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44159</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44165</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44166</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44168</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44174</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44188</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44188</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>44188</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>44188</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44188</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44209</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44218</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>44224</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44237</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         <v>44249</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>44274</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>44291</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44292</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>44299</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44302</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44316</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44316</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44316</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44316</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44316</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44322</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44333</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44333</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44336</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44337</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>44344</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44358</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44362</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44369</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44370</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>44370</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44370</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44370</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44377</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44377</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44386</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>44386</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44387</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44393</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44397</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44406</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44413</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>44420</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44439</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>44441</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44447</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44452</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44456</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44459</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44470</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44476</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44477</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44482</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44508</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>44512</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44516</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44516</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44516</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>44543</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44552</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44572</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44579</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44579</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44581</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44599</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44600</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44643</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44658</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44680</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44700</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>44701</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44706</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44711</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44720</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44720</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44729</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20108,7 +20108,7 @@
         <v>44730</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44733</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44741</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>44785</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44785</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44789</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44809</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44811</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44817</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44826</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20723,7 +20723,7 @@
         <v>44826</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44830</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44831</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>44831</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44833</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44844</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>44844</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>44848</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>44852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>44853</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44854</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44859</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44867</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>44869</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>44872</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>44872</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>44879</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>44880</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>44883</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44883</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44890</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44893</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44895</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>44903</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>44929</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44929</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>44942</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         <v>44945</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>44958</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44960</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44960</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44960</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44960</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44964</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44978</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44983</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44994</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44994</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>45001</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>45002</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>45021</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>45034</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>45034</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>45034</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>45034</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
         <v>45043</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45044</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>45044</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45054</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45058</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>45062</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>45062</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>45063</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>45063</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>45063</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24410,7 +24410,7 @@
         <v>45063</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>45063</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>45068</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>45068</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>45068</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>45068</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>45068</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>45072</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>45079</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>45082</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>45082</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>45093</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45098</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45105</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45112</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>45112</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>45113</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45114</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45117</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45118</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45127</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>45128</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>45131</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45131</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>45148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>45149</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>45149</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45163</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>

--- a/Översikt LUDVIKA.xlsx
+++ b/Översikt LUDVIKA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y408"/>
+  <dimension ref="A1:Y409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44792</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44761</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>44221</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44937</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43801</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>45084</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44188</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>45072</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45099</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43872</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44322</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44831</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45049</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>45061</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43389</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43581</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>43873</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44167</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44188</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>44456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>44547</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44560</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>44571</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44693</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>44694</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44832</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44874</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>44888</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>45041</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>45089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>45093</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45126</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45140</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43355</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43363</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43384</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43385</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43385</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43385</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43389</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43389</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43403</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43404</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43427</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43436</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43451</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43474</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43494</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43494</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43497</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43500</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43501</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>43502</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>43531</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43551</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43551</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43557</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>43593</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43606</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43614</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43630</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>43630</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>43630</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>43656</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>43662</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>43664</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>43681</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>43696</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43705</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43714</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43734</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43770</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43791</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43797</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43798</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43798</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43801</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43819</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43847</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43847</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43860</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43861</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>43861</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43868</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>43873</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43881</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43882</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43887</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43887</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43892</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43893</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43895</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43898</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43900</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43903</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>43903</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43910</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43915</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43918</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>43921</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>43921</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43922</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43923</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43923</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43923</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43923</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43923</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43924</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43949</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>43965</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>43969</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>43978</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>43979</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43983</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43983</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43983</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43983</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43993</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>43999</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>44000</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44006</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44012</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44020</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44036</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44067</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44069</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44081</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44085</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>44085</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44085</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>44085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44090</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>44092</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44092</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44092</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44092</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44097</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44097</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44104</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44116</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44116</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44118</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>44119</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44119</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44120</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44123</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44127</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44127</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44131</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>44154</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>44154</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44154</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44159</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44165</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44166</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44168</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44174</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44188</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44188</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>44188</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>44188</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44188</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44209</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44218</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>44224</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44237</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         <v>44249</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>44274</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>44291</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44292</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>44299</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44302</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44316</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44316</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44316</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44316</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44316</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44322</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44333</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44333</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44336</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44337</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>44344</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44358</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44362</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44369</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44370</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>44370</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44370</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44370</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44377</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44377</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44386</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>44386</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44387</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44393</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44397</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44406</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44413</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>44420</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44439</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>44441</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44447</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44452</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44456</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44459</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44470</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44476</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44477</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44482</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44508</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>44512</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44516</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44516</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44516</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>44543</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44552</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44572</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44579</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44579</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44581</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44599</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44600</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44643</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44658</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44680</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44700</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>44701</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44706</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44711</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44720</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44720</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44729</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20108,7 +20108,7 @@
         <v>44730</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44733</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44741</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>44785</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44785</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44789</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44809</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44811</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44817</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44826</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20723,7 +20723,7 @@
         <v>44826</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44830</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44831</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>44831</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44833</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44844</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>44844</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>44848</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>44852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>44853</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44854</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44859</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44867</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>44869</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>44872</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>44872</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>44879</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>44880</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>44883</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44883</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44890</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44893</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44895</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>44903</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>44929</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44929</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>44942</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         <v>44945</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>44958</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44960</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44960</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44960</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44960</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44964</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44978</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44983</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44994</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44994</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>45001</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>45002</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>45021</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>45034</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>45034</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>45034</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>45034</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
         <v>45043</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45044</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>45044</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45054</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45058</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>45062</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>45062</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>45063</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>45063</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>45063</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24410,7 +24410,7 @@
         <v>45063</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>45063</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>45068</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>45068</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>45068</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>45068</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>45068</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>45072</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>45079</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>45082</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>45082</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>45093</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45098</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45105</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45112</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>45112</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>45113</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45114</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45117</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45118</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45127</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>45128</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>45131</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45131</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>45148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>45149</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>45149</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26344,7 +26344,7 @@
       </c>
       <c r="R407" s="2" t="inlineStr"/>
     </row>
-    <row r="408">
+    <row r="408" ht="15" customHeight="1">
       <c r="A408" t="inlineStr">
         <is>
           <t>A 38925-2023</t>
@@ -26354,7 +26354,7 @@
         <v>45163</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26400,6 +26400,63 @@
         <v>0</v>
       </c>
       <c r="R408" s="2" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>A 44520-2023</t>
+        </is>
+      </c>
+      <c r="B409" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C409" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>LUDVIKA</t>
+        </is>
+      </c>
+      <c r="G409" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H409" t="n">
+        <v>0</v>
+      </c>
+      <c r="I409" t="n">
+        <v>0</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0</v>
+      </c>
+      <c r="L409" t="n">
+        <v>0</v>
+      </c>
+      <c r="M409" t="n">
+        <v>0</v>
+      </c>
+      <c r="N409" t="n">
+        <v>0</v>
+      </c>
+      <c r="O409" t="n">
+        <v>0</v>
+      </c>
+      <c r="P409" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q409" t="n">
+        <v>0</v>
+      </c>
+      <c r="R409" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LUDVIKA.xlsx
+++ b/Översikt LUDVIKA.xlsx
@@ -572,7 +572,7 @@
         <v>44792</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44761</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>44221</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44937</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43801</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>45084</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44188</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>45072</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45099</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43872</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44322</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44831</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45049</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>45061</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43389</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43581</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>43873</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44167</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44188</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>44456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>44547</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44560</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>44571</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44693</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>44694</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44832</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44874</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>44888</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>45041</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>45089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>45093</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45126</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45140</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43355</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43363</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43384</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43385</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43385</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43385</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43389</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43389</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43403</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43404</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43427</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43436</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43451</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43474</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43494</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43494</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43497</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43500</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43501</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>43502</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>43531</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43551</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43551</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43557</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>43593</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43606</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43614</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43630</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>43630</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>43630</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>43656</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>43662</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>43664</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>43681</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>43696</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43705</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43714</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43734</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43770</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43791</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43797</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43798</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43798</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43801</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43819</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43847</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43847</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43860</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43861</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>43861</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43868</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>43873</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43881</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43882</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43887</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43887</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43892</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43893</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43895</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43898</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43900</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43903</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>43903</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43910</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43915</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43918</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>43921</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>43921</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43922</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43923</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43923</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43923</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43923</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43923</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43924</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43949</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>43965</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>43969</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>43978</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>43979</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43983</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43983</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43983</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43983</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43993</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>43999</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>44000</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44006</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44012</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44020</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44036</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44067</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44069</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44081</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44085</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>44085</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44085</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>44085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44090</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>44092</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44092</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44092</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44092</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44097</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44097</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44104</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44116</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44116</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44118</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>44119</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44119</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44120</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44123</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44127</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44127</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44131</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>44154</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>44154</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44154</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44159</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44165</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44166</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44168</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44174</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44188</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44188</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>44188</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>44188</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44188</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44209</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44218</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>44224</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44237</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         <v>44249</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>44274</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>44291</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44292</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>44299</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44302</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44316</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44316</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44316</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44316</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44316</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44322</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44333</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44333</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44336</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44337</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>44344</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44358</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44362</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44369</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44370</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>44370</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44370</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44370</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44377</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44377</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44386</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>44386</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44387</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44393</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44397</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44406</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44413</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>44420</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44439</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>44441</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44447</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44452</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44456</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44459</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44470</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44476</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44477</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44482</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44508</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>44512</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44516</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44516</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44516</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>44543</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44552</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44572</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44579</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44579</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44581</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44599</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44600</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44643</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44658</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44680</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44700</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>44701</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44706</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44711</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44720</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44720</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44729</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20108,7 +20108,7 @@
         <v>44730</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44733</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44741</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>44785</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44785</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44789</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44809</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44811</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44817</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44826</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20723,7 +20723,7 @@
         <v>44826</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44830</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44831</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>44831</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44833</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44844</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>44844</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>44848</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>44852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>44853</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44854</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44859</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44867</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>44869</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>44872</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>44872</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>44879</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>44880</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>44883</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44883</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44890</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44893</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44895</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>44903</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>44929</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44929</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>44942</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         <v>44945</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>44958</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44960</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44960</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44960</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44960</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44964</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44978</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44983</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44994</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44994</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>45001</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>45002</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>45021</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>45034</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>45034</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>45034</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>45034</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
         <v>45043</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45044</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>45044</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45054</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45058</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>45062</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>45062</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>45063</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>45063</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>45063</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24410,7 +24410,7 @@
         <v>45063</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>45063</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>45068</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>45068</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>45068</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>45068</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>45068</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>45072</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>45079</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>45082</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>45082</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>45093</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45098</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45105</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45112</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>45112</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>45113</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45114</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45117</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45118</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45127</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>45128</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>45131</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45131</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>45148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>45149</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>45149</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45163</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>45189</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>

--- a/Översikt LUDVIKA.xlsx
+++ b/Översikt LUDVIKA.xlsx
@@ -572,7 +572,7 @@
         <v>44792</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44761</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>44221</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44937</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43801</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>45084</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44188</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>45072</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45099</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43872</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44322</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44831</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45049</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>45061</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43389</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43581</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>43873</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44167</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44188</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>44456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>44547</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44560</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>44571</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44693</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>44694</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44832</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44874</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>44888</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>45041</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>45089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>45093</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45126</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45140</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43355</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43363</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43384</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43385</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43385</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43385</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43389</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43389</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43403</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43404</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43427</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43436</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43451</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43474</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43494</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43494</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43497</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43500</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43501</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>43502</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>43531</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43551</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43551</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43557</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>43593</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43606</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43614</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43630</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>43630</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>43630</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>43656</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>43662</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>43664</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>43681</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>43696</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43705</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43714</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43734</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43770</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43791</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43797</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43798</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43798</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43801</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43819</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43847</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43847</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43860</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43861</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>43861</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43868</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>43873</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43881</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43882</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43887</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43887</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43892</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43893</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43895</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43898</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43900</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43903</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>43903</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43910</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43915</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43918</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>43921</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>43921</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43922</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43923</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43923</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43923</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43923</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43923</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43924</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43949</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>43965</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>43969</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>43978</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>43979</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43983</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43983</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43983</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43983</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43993</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>43999</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>44000</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44006</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44012</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44020</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44036</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44067</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44069</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44081</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44085</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>44085</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44085</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>44085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44090</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>44092</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44092</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44092</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44092</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44097</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44097</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44104</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44116</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44116</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44118</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>44119</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44119</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44120</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44123</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44127</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44127</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44131</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>44154</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>44154</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44154</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44159</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44165</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44166</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44168</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44174</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44188</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44188</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>44188</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>44188</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44188</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44209</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44218</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>44224</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44237</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         <v>44249</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>44274</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>44291</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44292</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>44299</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44302</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44316</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44316</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44316</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44316</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44316</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44322</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44333</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44333</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44336</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44337</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>44344</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44358</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44362</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44369</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44370</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>44370</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44370</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44370</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44377</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44377</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44386</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>44386</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44387</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44393</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44397</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44406</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44413</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>44420</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44439</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>44441</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44447</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44452</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44456</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44459</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44470</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44476</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44477</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44482</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44508</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>44512</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44516</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44516</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44516</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>44543</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44552</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44572</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44579</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44579</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44581</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44599</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44600</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44643</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44658</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44680</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44700</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>44701</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44706</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44711</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44720</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44720</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44729</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20108,7 +20108,7 @@
         <v>44730</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44733</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44741</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>44785</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44785</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44789</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44809</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44811</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44817</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44826</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20723,7 +20723,7 @@
         <v>44826</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44830</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44831</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>44831</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44833</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44844</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>44844</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>44848</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>44852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>44853</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44854</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44859</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44867</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>44869</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>44872</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>44872</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>44879</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>44880</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>44883</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44883</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44890</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44893</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44895</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>44903</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>44929</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44929</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>44942</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         <v>44945</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>44958</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44960</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44960</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44960</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44960</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44964</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44978</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44983</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44994</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44994</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>45001</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>45002</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>45021</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>45034</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>45034</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>45034</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>45034</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
         <v>45043</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45044</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>45044</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45054</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45058</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>45062</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>45062</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>45063</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>45063</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>45063</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24410,7 +24410,7 @@
         <v>45063</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>45063</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>45068</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>45068</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>45068</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>45068</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>45068</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>45072</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>45079</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>45082</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>45082</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>45093</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45098</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45105</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45112</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>45112</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>45113</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45114</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45117</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45118</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45127</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>45128</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>45131</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45131</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>45148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>45149</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>45149</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45163</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>45189</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>

--- a/Översikt LUDVIKA.xlsx
+++ b/Översikt LUDVIKA.xlsx
@@ -572,7 +572,7 @@
         <v>44792</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44761</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>44221</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44937</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43801</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>45084</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44188</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>45072</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45099</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43872</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44322</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44831</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45049</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>45061</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43389</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43581</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>43873</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44167</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44188</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>44456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>44547</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44560</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>44571</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44693</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>44694</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44832</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44874</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>44888</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>45041</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>45089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>45093</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45126</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45140</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43355</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43363</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43384</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43385</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43385</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43385</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43389</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43389</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43403</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43404</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43427</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43436</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43451</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43474</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43494</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43494</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43497</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43500</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43501</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>43502</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>43531</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43551</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43551</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43557</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>43593</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43606</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43614</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43630</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>43630</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>43630</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>43656</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>43662</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>43664</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>43681</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>43696</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43705</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43714</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43734</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43770</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43791</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43797</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43798</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43798</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43801</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43819</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43847</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43847</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43860</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43861</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>43861</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43868</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>43873</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43881</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43882</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43887</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43887</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43892</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43893</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43895</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43898</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43900</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43903</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>43903</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43910</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43915</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43918</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>43921</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>43921</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43922</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43923</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43923</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43923</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43923</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43923</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43924</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43949</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>43965</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>43969</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>43978</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>43979</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43983</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43983</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43983</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43983</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43993</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>43999</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>44000</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44006</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44012</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44020</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44036</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44067</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44069</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44081</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44085</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>44085</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44085</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>44085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44090</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>44092</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44092</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44092</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44092</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44097</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44097</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44104</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44116</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44116</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44118</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>44119</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44119</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44120</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44123</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44127</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44127</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44131</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>44154</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>44154</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44154</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44159</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44165</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44166</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44168</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44174</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44188</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44188</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>44188</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>44188</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44188</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44209</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44218</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>44224</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44237</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         <v>44249</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>44274</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>44291</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44292</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>44299</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44302</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44316</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44316</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44316</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44316</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44316</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44322</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44333</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44333</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44336</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44337</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>44344</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44358</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44362</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44369</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44370</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>44370</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44370</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44370</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44377</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44377</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44386</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>44386</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44387</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44393</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44397</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44406</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44413</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>44420</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44439</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>44441</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44447</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44452</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44456</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44459</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44470</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44476</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44477</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44482</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44508</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>44512</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44516</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44516</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44516</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>44543</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44552</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44572</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44579</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44579</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44581</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44599</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44600</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44643</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44658</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44680</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44700</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>44701</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44706</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44711</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44720</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44720</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44729</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20108,7 +20108,7 @@
         <v>44730</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44733</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44741</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>44785</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44785</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44789</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44809</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44811</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44817</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44826</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20723,7 +20723,7 @@
         <v>44826</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44830</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44831</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>44831</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44833</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44844</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>44844</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>44848</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>44852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>44853</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44854</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44859</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44867</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>44869</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>44872</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>44872</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>44879</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>44880</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>44883</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44883</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44890</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44893</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44895</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>44903</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>44929</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44929</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>44942</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         <v>44945</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>44958</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44960</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44960</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44960</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44960</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44964</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44978</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44983</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44994</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44994</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>45001</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>45002</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>45021</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>45034</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>45034</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>45034</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>45034</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
         <v>45043</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45044</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>45044</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45054</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45058</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>45062</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>45062</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>45063</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>45063</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>45063</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24410,7 +24410,7 @@
         <v>45063</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>45063</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>45068</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>45068</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>45068</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>45068</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>45068</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>45072</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>45079</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>45082</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>45082</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>45093</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45098</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45105</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45112</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>45112</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>45113</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45114</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45117</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45118</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45127</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>45128</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>45131</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45131</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>45148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>45149</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>45149</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45163</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>45189</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>

--- a/Översikt LUDVIKA.xlsx
+++ b/Översikt LUDVIKA.xlsx
@@ -572,7 +572,7 @@
         <v>44792</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44761</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>44221</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44937</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43801</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>45084</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44188</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>45072</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45099</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43872</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44322</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44831</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45049</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>45061</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43389</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43581</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>43873</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44167</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44188</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>44456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>44547</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44560</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>44571</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44693</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>44694</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44832</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44874</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>44888</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>45041</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>45089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>45093</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45126</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45140</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43355</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43363</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43384</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43385</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43385</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43385</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43389</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43389</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43403</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43404</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43427</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43436</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43451</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43474</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43494</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43494</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43497</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43500</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43501</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>43502</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>43531</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43551</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43551</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43557</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>43593</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43606</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43614</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43630</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>43630</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>43630</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>43656</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>43662</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>43664</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>43681</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>43696</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43705</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43714</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43734</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43770</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43791</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43797</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43798</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43798</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43801</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43819</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43847</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43847</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43860</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43861</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>43861</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43868</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>43873</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43881</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43882</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43887</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43887</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43892</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43893</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43895</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43898</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43900</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43903</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>43903</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43910</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43915</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43918</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>43921</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>43921</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43922</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43923</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43923</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43923</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43923</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43923</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43924</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43949</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>43965</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>43969</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>43978</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>43979</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43983</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43983</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43983</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43983</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43993</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>43999</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>44000</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44006</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44012</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44020</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44036</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44067</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44069</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44081</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44085</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>44085</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44085</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>44085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44090</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>44092</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44092</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44092</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44092</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44097</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44097</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44104</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44116</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44116</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44118</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>44119</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44119</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44120</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44123</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44127</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44127</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44131</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>44154</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>44154</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44154</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44159</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44165</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44166</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44168</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44174</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44188</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44188</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>44188</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>44188</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44188</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44209</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44218</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>44224</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44237</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         <v>44249</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>44274</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>44291</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44292</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>44299</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44302</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44316</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44316</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44316</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44316</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44316</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44322</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44333</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44333</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44336</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44337</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>44344</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44358</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44362</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44369</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44370</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>44370</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44370</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44370</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44377</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44377</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44386</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>44386</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44387</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44393</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44397</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44406</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44413</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>44420</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44439</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>44441</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44447</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44452</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44456</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44459</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44470</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44476</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44477</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44482</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44508</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>44512</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44516</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44516</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44516</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>44543</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44552</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44572</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44579</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44579</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44581</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44599</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44600</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44643</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44658</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44680</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44700</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>44701</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44706</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44711</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44720</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44720</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44729</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20108,7 +20108,7 @@
         <v>44730</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44733</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44741</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>44785</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44785</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44789</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44809</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44811</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44817</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44826</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20723,7 +20723,7 @@
         <v>44826</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44830</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44831</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>44831</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44833</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44844</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>44844</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>44848</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>44852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>44853</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44854</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44859</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44867</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>44869</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>44872</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>44872</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>44879</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>44880</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>44883</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44883</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44890</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44893</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44895</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>44903</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>44929</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44929</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>44942</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         <v>44945</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>44958</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44960</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44960</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44960</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44960</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44964</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44978</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44983</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44994</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44994</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>45001</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>45002</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>45021</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>45034</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>45034</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>45034</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>45034</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
         <v>45043</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45044</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>45044</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45054</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45058</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>45062</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>45062</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>45063</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>45063</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>45063</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24410,7 +24410,7 @@
         <v>45063</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>45063</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>45068</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>45068</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>45068</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>45068</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>45068</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>45072</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>45079</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>45082</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>45082</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>45093</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45098</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45105</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45112</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>45112</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>45113</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45114</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45117</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45118</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45127</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>45128</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>45131</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45131</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>45148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>45149</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>45149</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45163</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>45189</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>

--- a/Översikt LUDVIKA.xlsx
+++ b/Översikt LUDVIKA.xlsx
@@ -572,7 +572,7 @@
         <v>44792</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44761</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>44221</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44937</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43801</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>45084</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44188</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>45072</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45099</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43872</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44322</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44831</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45049</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>45061</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43389</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43581</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>43873</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44167</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44188</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>44456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>44547</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44560</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>44571</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44693</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>44694</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44832</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44874</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>44888</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>45041</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>45089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>45093</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45126</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45140</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43355</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43363</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43384</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43385</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43385</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43385</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43389</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43389</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43403</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43404</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43427</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43436</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43451</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43474</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43494</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43494</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43497</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43500</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43501</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>43502</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>43531</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43551</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43551</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43557</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>43593</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43606</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43614</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43630</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>43630</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>43630</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>43656</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>43662</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>43664</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>43681</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>43696</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43705</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43714</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43734</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43770</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43791</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43797</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43798</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43798</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43801</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43819</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43847</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43847</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43860</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43861</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>43861</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43868</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>43873</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43881</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43882</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43887</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43887</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43892</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43893</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43895</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43898</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43900</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43903</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>43903</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43910</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43915</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43918</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>43921</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>43921</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43922</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43923</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43923</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43923</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43923</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43923</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43924</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43949</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>43965</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>43969</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>43978</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>43979</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43983</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43983</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43983</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43983</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43993</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>43999</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>44000</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44006</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44012</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44020</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44036</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44067</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44069</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44081</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44085</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>44085</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44085</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>44085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44090</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>44092</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44092</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44092</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44092</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44097</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44097</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44104</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44116</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44116</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44118</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>44119</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44119</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44120</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44123</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44127</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44127</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44131</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>44154</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>44154</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44154</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44159</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44165</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44166</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44168</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44174</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44188</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44188</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>44188</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>44188</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44188</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44209</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44218</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>44224</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44237</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         <v>44249</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>44274</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>44291</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44292</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>44299</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44302</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44316</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44316</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44316</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44316</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44316</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44322</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44333</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44333</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44336</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44337</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>44344</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44358</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44362</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44369</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44370</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>44370</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44370</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44370</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44377</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44377</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44386</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>44386</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44387</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44393</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44397</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44406</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44413</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>44420</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44439</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>44441</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44447</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44452</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44456</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44459</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44470</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44476</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44477</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44482</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44508</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>44512</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44516</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44516</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44516</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>44543</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44552</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44572</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44579</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44579</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44581</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44599</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44600</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44643</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44658</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44680</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44700</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>44701</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44706</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44711</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44720</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44720</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44729</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20108,7 +20108,7 @@
         <v>44730</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44733</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44741</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>44785</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44785</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44789</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44809</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44811</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44817</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44826</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20723,7 +20723,7 @@
         <v>44826</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44830</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44831</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>44831</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44833</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44844</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>44844</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>44848</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>44852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>44853</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44854</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44859</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44867</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>44869</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>44872</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>44872</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>44879</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>44880</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>44883</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44883</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44890</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44893</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44895</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>44903</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>44929</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44929</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>44942</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         <v>44945</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>44958</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44960</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44960</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44960</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44960</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44964</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44978</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44983</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44994</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44994</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>45001</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>45002</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>45021</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>45034</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>45034</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>45034</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>45034</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
         <v>45043</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45044</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>45044</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45054</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45058</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>45062</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>45062</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>45063</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>45063</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>45063</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24410,7 +24410,7 @@
         <v>45063</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>45063</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>45068</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>45068</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>45068</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>45068</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>45068</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>45072</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>45079</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>45082</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>45082</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>45093</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45098</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45105</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45112</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>45112</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>45113</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45114</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45117</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45118</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45127</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>45128</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>45131</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45131</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>45148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>45149</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>45149</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45163</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>45189</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>

--- a/Översikt LUDVIKA.xlsx
+++ b/Översikt LUDVIKA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y409"/>
+  <dimension ref="A1:Y410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44792</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44761</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>44221</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44937</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43801</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>45084</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44435</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>45013</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43510</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>44188</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>45072</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45099</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43872</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44322</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>44480</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44831</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45049</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>45061</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45121</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43389</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>43581</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>43873</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44167</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44188</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>44456</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>44547</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44560</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>44571</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>44693</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>44694</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44706</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44832</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44874</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>44888</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>45041</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>45089</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>45093</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>45126</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45140</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>43355</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>43363</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43384</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>43385</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>43385</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43385</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43389</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43389</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43403</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43404</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43404</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>43425</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>43427</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43436</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43451</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43472</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43472</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43474</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43474</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43474</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>43494</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>43494</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43497</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>43500</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>43501</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>43502</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>43531</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>43532</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>43546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>43551</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43551</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>43557</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>43593</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43605</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43606</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43614</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>43630</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>43630</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>43630</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>43649</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         <v>43656</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>43662</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8036,7 +8036,7 @@
         <v>43664</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>43681</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>43696</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43698</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43705</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43714</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43734</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43770</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43780</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43788</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43791</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43797</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43798</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         <v>43798</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43801</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>43819</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43847</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43847</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43860</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43861</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>43861</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>43868</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>43873</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43881</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43882</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43887</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43887</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43892</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43892</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43893</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>43894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43895</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43898</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43900</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43903</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>43903</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43910</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43915</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>43918</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>43921</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>43921</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43922</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43923</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43923</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43923</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43923</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43923</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43924</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43949</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>43965</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>43969</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>43978</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>43979</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43983</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>43983</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43983</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>43983</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>43993</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>43999</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>44000</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>44006</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>44012</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>44020</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>44022</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44036</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>44067</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>44069</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>44069</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44070</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44081</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13166,7 +13166,7 @@
         <v>44085</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>44085</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44085</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>44085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44090</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13471,7 +13471,7 @@
         <v>44092</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         <v>44092</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>44092</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44092</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44092</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44097</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44097</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44104</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44113</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44116</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44116</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44118</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>44119</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44119</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44120</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44123</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44127</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44127</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44131</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>44154</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44154</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>44154</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>44154</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44154</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44159</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44165</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44166</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44168</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44174</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44188</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44188</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>44188</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>44188</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44188</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44209</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44218</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>44224</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>44237</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         <v>44249</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16042,7 +16042,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>44274</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>44291</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44292</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>44299</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44302</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>44316</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44316</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44316</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44316</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44316</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44322</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44333</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44333</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44336</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44337</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>44344</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44358</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44362</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         <v>44369</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44370</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>44370</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44370</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44370</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44377</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44377</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>44386</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>44386</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>44387</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>44393</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44397</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44406</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44413</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>44420</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44434</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44439</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>44441</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44447</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44452</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44456</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44459</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44470</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44476</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>44477</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44482</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>44508</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>44512</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44516</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44516</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44516</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>44543</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44552</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44572</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44579</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44579</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44581</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44599</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44600</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44643</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44658</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44680</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>44700</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>44701</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44706</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44711</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44720</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44720</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44729</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20108,7 +20108,7 @@
         <v>44730</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>44733</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>44741</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>44785</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44785</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44789</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44809</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44811</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44817</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44826</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20723,7 +20723,7 @@
         <v>44826</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>44827</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>44830</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>44831</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>44831</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44833</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>44844</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>44844</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>44848</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>44852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>44853</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44854</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44859</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>44859</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44867</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>44869</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>44872</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>44872</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>44879</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>44880</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>44883</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>44883</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44890</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44890</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>44893</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>44895</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>44903</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>44929</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44929</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>44942</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         <v>44945</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>44958</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44960</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>44960</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>44960</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>44960</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44964</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>44978</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44983</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44994</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>44994</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>45001</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>45002</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>45021</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>45034</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>45034</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>45034</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>45034</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
         <v>45043</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45044</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>45044</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>45054</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45058</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24100,7 +24100,7 @@
         <v>45062</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>45062</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>45063</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>45063</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>45063</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24410,7 +24410,7 @@
         <v>45063</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>45063</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24529,7 +24529,7 @@
         <v>45068</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24586,7 +24586,7 @@
         <v>45068</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>45068</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>45068</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>45068</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>45072</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>45079</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>45082</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>45082</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>45093</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45098</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45105</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45112</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>45112</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>45113</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45114</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45117</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45118</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>45119</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>45125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>45126</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>45127</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>45128</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>45131</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45131</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>45148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>45149</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>45149</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>45163</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26401,7 +26401,7 @@
       </c>
       <c r="R408" s="2" t="inlineStr"/>
     </row>
-    <row r="409">
+    <row r="409" ht="15" customHeight="1">
       <c r="A409" t="inlineStr">
         <is>
           <t>A 44520-2023</t>
@@ -26411,7 +26411,7 @@
         <v>45189</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26457,6 +26457,68 @@
         <v>0</v>
       </c>
       <c r="R409" s="2" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>A 47940-2023</t>
+        </is>
+      </c>
+      <c r="B410" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C410" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>LUDVIKA</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G410" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0</v>
+      </c>
+      <c r="I410" t="n">
+        <v>0</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0</v>
+      </c>
+      <c r="L410" t="n">
+        <v>0</v>
+      </c>
+      <c r="M410" t="n">
+        <v>0</v>
+      </c>
+      <c r="N410" t="n">
+        <v>0</v>
+      </c>
+      <c r="O410" t="n">
+        <v>0</v>
+      </c>
+      <c r="P410" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q410" t="n">
+        <v>0</v>
+      </c>
+      <c r="R410" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
